--- a/Routers_info.xlsx
+++ b/Routers_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="94">
   <si>
     <t>RSSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,30 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
@@ -392,11 +368,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>와이파이의 중간지점으로갈수록 signal이 오히려 갑자기 줄어듦(도넛모양)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(meter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77:60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77:61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77:63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77:70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77:71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77:73</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +753,7 @@
   <dimension ref="A1:K249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -782,7 +778,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -883,10 +879,10 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -912,7 +908,7 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -938,7 +934,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J7" s="1">
         <v>112</v>
@@ -993,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J9">
         <v>5.2</v>
@@ -1025,7 +1021,7 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J10">
         <v>-45</v>
@@ -1056,9 +1052,7 @@
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
@@ -1288,7 +1282,7 @@
         <v>2.4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>14</v>
@@ -1311,7 +1305,7 @@
         <v>2.4</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>14</v>
@@ -1334,7 +1328,7 @@
         <v>2.4</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>14</v>
@@ -1357,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>14</v>
@@ -1380,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>14</v>
@@ -1403,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>14</v>
@@ -1414,19 +1408,19 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E26" s="3">
         <v>2.4</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>14</v>
@@ -1437,19 +1431,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E27" s="3">
         <v>2.4</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>14</v>
@@ -1460,19 +1454,19 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E28" s="3">
         <v>2.4</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>14</v>
@@ -1483,19 +1477,19 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E29" s="3">
         <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>14</v>
@@ -1506,19 +1500,19 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E30" s="3">
-        <v>5</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>14</v>
@@ -1529,19 +1523,19 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E31" s="3">
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>14</v>
@@ -1552,19 +1546,19 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E32" s="3">
         <v>2.4</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>14</v>
@@ -1575,19 +1569,19 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E33" s="3">
         <v>2.4</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>14</v>
@@ -1598,19 +1592,19 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E34" s="3">
         <v>2.4</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>14</v>
@@ -1621,19 +1615,19 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E35" s="3">
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>14</v>
@@ -1644,19 +1638,19 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E36" s="3">
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>14</v>
@@ -1667,19 +1661,19 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1">
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E37" s="3">
-        <v>5</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>14</v>
@@ -1690,19 +1684,19 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E38" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>14</v>
@@ -1713,19 +1707,19 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E39" s="3">
         <v>2.4</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>14</v>
@@ -1736,19 +1730,19 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E40" s="3">
         <v>2.4</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>14</v>
@@ -1759,19 +1753,19 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E41" s="3">
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>14</v>
@@ -1782,19 +1776,19 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E42" s="3">
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>14</v>
@@ -1805,19 +1799,19 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>14</v>
@@ -1828,19 +1822,19 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E44" s="3">
         <v>2.4</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>14</v>
@@ -1851,19 +1845,19 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E45" s="3">
         <v>2.4</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>14</v>
@@ -1874,19 +1868,19 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E46" s="3">
         <v>2.4</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>14</v>
@@ -1897,19 +1891,19 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E47" s="3">
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>14</v>
@@ -1920,19 +1914,19 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E48" s="3">
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>14</v>
@@ -1943,19 +1937,19 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E49" s="3">
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>14</v>
@@ -1966,19 +1960,19 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E50" s="3">
         <v>2.4</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>14</v>
@@ -1989,19 +1983,19 @@
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E51" s="3">
         <v>2.4</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>14</v>
@@ -2012,19 +2006,19 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>14</v>
@@ -2035,19 +2029,19 @@
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>14</v>
@@ -2058,19 +2052,19 @@
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E54" s="3">
         <v>5</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>14</v>
@@ -2081,19 +2075,19 @@
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E55" s="3">
         <v>5</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>14</v>
@@ -2104,19 +2098,19 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E56" s="3">
         <v>2.4</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>14</v>
@@ -2127,19 +2121,19 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E57" s="3">
         <v>2.4</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>14</v>
@@ -2150,19 +2144,19 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E58" s="3">
         <v>2.4</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>14</v>
@@ -2173,19 +2167,19 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E59" s="3">
         <v>5</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>14</v>
@@ -2196,19 +2190,19 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E60" s="3">
         <v>5</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>14</v>
@@ -2219,19 +2213,19 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C61" s="1">
         <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E61" s="3">
         <v>5</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>14</v>
